--- a/rendu_projet/Rendu-Projet-Complet-BRUNEL-LEMTAYER.xlsx
+++ b/rendu_projet/Rendu-Projet-Complet-BRUNEL-LEMTAYER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brufl\projets\projets_lp\php\dealabs\rendu_projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671A7F35-DA72-46E5-8BB0-984839C604D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D45BDAE-4BE8-43ED-ABBC-56E50CA42F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A58EC350-CF33-BC4F-BC06-897311A7761F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>Binome</t>
   </si>
@@ -139,32 +139,24 @@
     <t>Paul LE MÉTAYER</t>
   </si>
   <si>
-    <t>Dealabs</t>
-  </si>
-  <si>
-    <t>PARTIE 2</t>
-  </si>
-  <si>
-    <t>PARTIE 1</t>
-  </si>
-  <si>
-    <t>Un problème est apparu depuis peu, après la création d'un deal le controller ne redirige pas et un page blanche est affichée</t>
-  </si>
-  <si>
-    <t>Quelques problèmes persistent, un Listener mis en place pour récupérer le notifications à la connexion de l'utilisateur mais ne fontionne pas tout le temps</t>
-  </si>
-  <si>
     <t>Non</t>
   </si>
   <si>
-    <t>Impossible d'afficher une nouvelle route sur ApiPlatform malgré de très nombreuses tentatives...</t>
+    <t>Quelques problèmes persistent, un Listener mis en place pour récupérer les notifications à la connexion de l'utilisateur mais ne fontionne pas tout le temps
+Pour ce qui est du cron pour l'envoi de mail tous les jours, il n'est pas mis en place mais la command et le service auquel la command doit faire appel sont prêts</t>
+  </si>
+  <si>
+    <t>À finir</t>
+  </si>
+  <si>
+    <t>Dealabs - Partie 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,13 +200,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -250,17 +235,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -303,51 +288,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -734,7 +679,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -744,20 +689,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -784,81 +729,129 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
@@ -868,26 +861,26 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:A22">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A22">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>"$A$7=Oui'"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>"$A$7 == 'NON'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>"$A$7=Oui'"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>"$A$7 == 'NON'"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -902,10 +895,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995777F5-5494-3840-AC9A-36EDD3A31EBD}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -915,20 +908,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -954,9 +947,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>39</v>
+    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -964,7 +960,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -972,7 +968,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -980,7 +976,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -988,10 +984,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -999,7 +992,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -1007,18 +1000,18 @@
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -1026,7 +1019,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -1034,7 +1027,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -1042,204 +1035,41 @@
         <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C36" t="s">
-        <v>43</v>
+      <c r="C18" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="A7:A18">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",A7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",A7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A18">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>"$A$7=Oui'"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>"$A$7 == 'NON'"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A36">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",A7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",A7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A24 A26:A36">
-    <cfRule type="expression" dxfId="5" priority="13">
-      <formula>"$A$7=Oui'"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14">
-      <formula>"$A$7 == 'NON'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8">
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>"$A$7=Oui'"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
-      <formula>"$A$7 == 'NON'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
+  <conditionalFormatting sqref="A7:C7">
     <cfRule type="expression" dxfId="1" priority="17">
       <formula>"$A$7=Oui'"</formula>
     </cfRule>
@@ -1248,7 +1078,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A36" xr:uid="{E8BC892A-806A-1D4A-B4DD-CAC5635502D7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A18" xr:uid="{E8BC892A-806A-1D4A-B4DD-CAC5635502D7}">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
   </dataValidations>

--- a/rendu_projet/Rendu-Projet-Complet-BRUNEL-LEMTAYER.xlsx
+++ b/rendu_projet/Rendu-Projet-Complet-BRUNEL-LEMTAYER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brufl\projets\projets_lp\php\dealabs\rendu_projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D45BDAE-4BE8-43ED-ABBC-56E50CA42F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A292FC8A-D285-43DD-8FA4-285E38B90DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A58EC350-CF33-BC4F-BC06-897311A7761F}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{A58EC350-CF33-BC4F-BC06-897311A7761F}"/>
   </bookViews>
   <sheets>
     <sheet name="Partie 1" sheetId="1" r:id="rId1"/>
@@ -146,10 +146,10 @@
 Pour ce qui est du cron pour l'envoi de mail tous les jours, il n'est pas mis en place mais la command et le service auquel la command doit faire appel sont prêts</t>
   </si>
   <si>
-    <t>À finir</t>
-  </si>
-  <si>
     <t>Dealabs - Partie 2</t>
+  </si>
+  <si>
+    <t>Non fini - manque la sécurité (documentation API PLATFORM ne fonctionne pas) avec JWT (lexik)</t>
   </si>
 </sst>
 </file>
@@ -235,11 +235,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,20 +689,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995777F5-5494-3840-AC9A-36EDD3A31EBD}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -908,20 +908,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1010,7 +1010,7 @@
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
